--- a/data/georgia_census/guria/ozurgeti/population_total.xlsx
+++ b/data/georgia_census/guria/ozurgeti/population_total.xlsx
@@ -1354,13 +1354,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F13C262C-6C25-4CB1-9347-3B486C2AEF19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621B7DBD-2449-4FDD-8441-83B1B2AF331C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58DA0A67-9CAB-4E20-A375-2EE823760F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44FD6034-143B-44A3-8E97-04DEEF0F37E5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D178135B-5D6C-4B2F-B0C1-31EE85BA47D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F593CBE3-B8A1-4102-AD42-F4291B76A30F}"/>
 </file>